--- a/расписание.xlsx
+++ b/расписание.xlsx
@@ -21,7 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="266">
+  <si>
+    <t xml:space="preserve">Дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Часы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предмет обучения, тема и учебные вопросы занятия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рекомендуемая
+литература</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод проведения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лицо прово-
+дящее занятие Место,</t>
+  </si>
   <si>
     <t xml:space="preserve">01-04</t>
   </si>
@@ -2045,6 +2065,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2065,14 +2097,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2083,10 +2107,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2162,766 +2182,786 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="107.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="C12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="F27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="F35" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="C38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="C39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="C40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="F41" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>23</v>
+      <c r="C42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2942,24 +2982,24 @@
   </sheetPr>
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A250" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C260" activeCellId="0" sqref="C260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D1" s="25" t="n">
         <v>44212</v>
@@ -2967,13 +3007,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D2" s="25" t="n">
         <v>44214</v>
@@ -2981,13 +3021,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D3" s="25" t="n">
         <v>44215</v>
@@ -2995,13 +3035,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D4" s="25" t="n">
         <v>44216</v>
@@ -3009,13 +3049,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D5" s="25" t="n">
         <v>44221</v>
@@ -3023,13 +3063,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D6" s="25" t="n">
         <v>44223</v>
@@ -3037,13 +3077,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D7" s="25" t="n">
         <v>44224</v>
@@ -3051,13 +3091,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D8" s="25" t="n">
         <v>44225</v>
@@ -3065,13 +3105,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D9" s="25" t="n">
         <v>44225</v>
@@ -3079,13 +3119,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D10" s="25" t="n">
         <v>44226</v>
@@ -3093,13 +3133,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D11" s="25" t="n">
         <v>44228</v>
@@ -3107,13 +3147,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D12" s="25" t="n">
         <v>44228</v>
@@ -3121,13 +3161,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D13" s="25" t="n">
         <v>44228</v>
@@ -3135,13 +3175,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D14" s="25" t="n">
         <v>44229</v>
@@ -3149,13 +3189,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D15" s="25" t="n">
         <v>44230</v>
@@ -3163,13 +3203,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D16" s="25" t="n">
         <v>44230</v>
@@ -3177,13 +3217,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D17" s="25" t="n">
         <v>44232</v>
@@ -3191,13 +3231,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D18" s="25" t="n">
         <v>44232</v>
@@ -3205,13 +3245,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D19" s="25" t="n">
         <v>44233</v>
@@ -3219,13 +3259,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D20" s="25" t="n">
         <v>44234</v>
@@ -3233,13 +3273,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D21" s="25" t="n">
         <v>44235</v>
@@ -3247,13 +3287,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D22" s="25" t="n">
         <v>44236</v>
@@ -3261,13 +3301,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D23" s="25" t="n">
         <v>44241</v>
@@ -3275,13 +3315,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D24" s="25" t="n">
         <v>44243</v>
@@ -3289,13 +3329,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D25" s="25" t="n">
         <v>44244</v>
@@ -3303,13 +3343,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D26" s="25" t="n">
         <v>44245</v>
@@ -3317,13 +3357,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D27" s="25" t="n">
         <v>44248</v>
@@ -3331,13 +3371,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D28" s="25" t="n">
         <v>44249</v>
@@ -3345,13 +3385,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D29" s="25" t="n">
         <v>44249</v>
@@ -3359,13 +3399,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D30" s="25" t="n">
         <v>44255</v>
@@ -3373,13 +3413,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D31" s="25" t="n">
         <v>44256</v>
@@ -3387,13 +3427,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D32" s="25" t="n">
         <v>44256</v>
@@ -3401,13 +3441,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D33" s="25" t="n">
         <v>44256</v>
@@ -3415,13 +3455,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D34" s="25" t="n">
         <v>44257</v>
@@ -3429,13 +3469,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D35" s="25" t="n">
         <v>44257</v>
@@ -3443,13 +3483,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D36" s="25" t="n">
         <v>44257</v>
@@ -3457,13 +3497,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D37" s="25" t="n">
         <v>44257</v>
@@ -3471,13 +3511,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D38" s="25" t="n">
         <v>44258</v>
@@ -3485,13 +3525,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D39" s="25" t="n">
         <v>44259</v>
@@ -3499,13 +3539,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D40" s="25" t="n">
         <v>44259</v>
@@ -3513,13 +3553,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D41" s="25" t="n">
         <v>44259</v>
@@ -3527,13 +3567,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D42" s="25" t="n">
         <v>44259</v>
@@ -3541,13 +3581,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D43" s="25" t="n">
         <v>44262</v>
@@ -3555,13 +3595,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D44" s="25" t="n">
         <v>44264</v>
@@ -3569,13 +3609,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D45" s="25" t="n">
         <v>44264</v>
@@ -3583,13 +3623,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D46" s="25" t="n">
         <v>44264</v>
@@ -3597,13 +3637,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D47" s="25" t="n">
         <v>44266</v>
@@ -3611,13 +3651,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D48" s="25" t="n">
         <v>44269</v>
@@ -3625,13 +3665,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D49" s="25" t="n">
         <v>44269</v>
@@ -3639,13 +3679,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D50" s="25" t="n">
         <v>44270</v>
@@ -3653,13 +3693,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D51" s="25" t="n">
         <v>44270</v>
@@ -3667,13 +3707,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D52" s="25" t="n">
         <v>44270</v>
@@ -3681,13 +3721,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D53" s="25" t="n">
         <v>44270</v>
@@ -3695,13 +3735,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D54" s="25" t="n">
         <v>44271</v>
@@ -3709,13 +3749,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D55" s="25" t="n">
         <v>44271</v>
@@ -3723,13 +3763,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D56" s="25" t="n">
         <v>44272</v>
@@ -3737,13 +3777,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D57" s="25" t="n">
         <v>44272</v>
@@ -3751,13 +3791,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D58" s="25" t="n">
         <v>44272</v>
@@ -3765,13 +3805,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D59" s="25" t="n">
         <v>44275</v>
@@ -3779,13 +3819,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D60" s="25" t="n">
         <v>44276</v>
@@ -3793,13 +3833,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D61" s="25" t="n">
         <v>44277</v>
@@ -3807,13 +3847,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D62" s="25" t="n">
         <v>44279</v>
@@ -3821,13 +3861,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D63" s="25" t="n">
         <v>44281</v>
@@ -3835,13 +3875,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D64" s="25" t="n">
         <v>44282</v>
@@ -3849,13 +3889,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D65" s="25" t="n">
         <v>44282</v>
@@ -3863,13 +3903,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D66" s="25" t="n">
         <v>44291</v>
@@ -3877,13 +3917,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D67" s="25" t="n">
         <v>44291</v>
@@ -3891,13 +3931,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D68" s="25" t="n">
         <v>44296</v>
@@ -3905,13 +3945,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D69" s="25" t="n">
         <v>44296</v>
@@ -3919,13 +3959,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D70" s="25" t="n">
         <v>44298</v>
@@ -3933,13 +3973,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D71" s="25" t="n">
         <v>44301</v>
@@ -3947,13 +3987,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D72" s="25" t="n">
         <v>44302</v>
@@ -3961,13 +4001,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D73" s="25" t="n">
         <v>44303</v>
@@ -3975,13 +4015,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D74" s="25" t="n">
         <v>44304</v>
@@ -3989,13 +4029,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D75" s="25" t="n">
         <v>44305</v>
@@ -4003,13 +4043,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D76" s="25" t="n">
         <v>44305</v>
@@ -4017,13 +4057,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D77" s="25" t="n">
         <v>44310</v>
@@ -4031,13 +4071,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D78" s="25" t="n">
         <v>44310</v>
@@ -4045,13 +4085,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D79" s="25" t="n">
         <v>44310</v>
@@ -4059,13 +4099,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D80" s="25" t="n">
         <v>44317</v>
@@ -4073,13 +4113,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D81" s="25" t="n">
         <v>44317</v>
@@ -4087,13 +4127,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D82" s="25" t="n">
         <v>44317</v>
@@ -4101,13 +4141,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D83" s="25" t="n">
         <v>44324</v>
@@ -4115,13 +4155,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D84" s="25" t="n">
         <v>44327</v>
@@ -4129,13 +4169,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D85" s="25" t="n">
         <v>44327</v>
@@ -4143,13 +4183,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D86" s="25" t="n">
         <v>44330</v>
@@ -4157,13 +4197,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D87" s="25" t="n">
         <v>44332</v>
@@ -4171,13 +4211,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D88" s="25" t="n">
         <v>44332</v>
@@ -4185,13 +4225,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D89" s="25" t="n">
         <v>44334</v>
@@ -4199,13 +4239,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="C90" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D90" s="25" t="n">
         <v>44335</v>
@@ -4213,13 +4253,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D91" s="25" t="n">
         <v>44337</v>
@@ -4227,13 +4267,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D92" s="25" t="n">
         <v>44338</v>
@@ -4241,13 +4281,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D93" s="25" t="n">
         <v>44339</v>
@@ -4255,13 +4295,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D94" s="25" t="n">
         <v>44344</v>
@@ -4269,13 +4309,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D95" s="25" t="n">
         <v>44347</v>
@@ -4283,13 +4323,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D96" s="25" t="n">
         <v>44349</v>
@@ -4297,13 +4337,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D97" s="25" t="n">
         <v>44349</v>
@@ -4311,13 +4351,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D98" s="25" t="n">
         <v>44349</v>
@@ -4325,13 +4365,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D99" s="25" t="n">
         <v>44350</v>
@@ -4339,13 +4379,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D100" s="25" t="n">
         <v>44350</v>
@@ -4353,13 +4393,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D101" s="25" t="n">
         <v>44350</v>
@@ -4367,13 +4407,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D102" s="25" t="n">
         <v>44350</v>
@@ -4381,13 +4421,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D103" s="25" t="n">
         <v>44351</v>
@@ -4395,13 +4435,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D104" s="25" t="n">
         <v>44352</v>
@@ -4409,13 +4449,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D105" s="25" t="n">
         <v>44352</v>
@@ -4423,13 +4463,13 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D106" s="25" t="n">
         <v>44352</v>
@@ -4437,13 +4477,13 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D107" s="25" t="n">
         <v>44352</v>
@@ -4451,13 +4491,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D108" s="25" t="n">
         <v>44353</v>
@@ -4465,13 +4505,13 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D109" s="25" t="n">
         <v>44355</v>
@@ -4479,13 +4519,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D110" s="25" t="n">
         <v>44355</v>
@@ -4493,13 +4533,13 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D111" s="25" t="n">
         <v>44357</v>
@@ -4507,13 +4547,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D112" s="25" t="n">
         <v>44357</v>
@@ -4521,13 +4561,13 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D113" s="25" t="n">
         <v>44357</v>
@@ -4535,13 +4575,13 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D114" s="25" t="n">
         <v>44359</v>
@@ -4549,13 +4589,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D115" s="25" t="n">
         <v>44362</v>
@@ -4563,13 +4603,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D116" s="25" t="n">
         <v>44362</v>
@@ -4577,13 +4617,13 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D117" s="25" t="n">
         <v>44363</v>
@@ -4591,13 +4631,13 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D118" s="25" t="n">
         <v>44363</v>
@@ -4605,13 +4645,13 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D119" s="25" t="n">
         <v>44363</v>
@@ -4619,13 +4659,13 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D120" s="25" t="n">
         <v>44364</v>
@@ -4633,13 +4673,13 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D121" s="25" t="n">
         <v>44364</v>
@@ -4647,13 +4687,13 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D122" s="25" t="n">
         <v>44365</v>
@@ -4661,13 +4701,13 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D123" s="25" t="n">
         <v>44365</v>
@@ -4675,13 +4715,13 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D124" s="25" t="n">
         <v>44368</v>
@@ -4689,13 +4729,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D125" s="25" t="n">
         <v>44369</v>
@@ -4703,13 +4743,13 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D126" s="25" t="n">
         <v>44370</v>
@@ -4717,13 +4757,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D127" s="25" t="n">
         <v>44374</v>
@@ -4731,13 +4771,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D128" s="25" t="n">
         <v>44375</v>
@@ -4745,13 +4785,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D129" s="25" t="n">
         <v>44375</v>
@@ -4759,13 +4799,13 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D130" s="25" t="n">
         <v>44377</v>
@@ -4773,13 +4813,13 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D131" s="25" t="n">
         <v>44384</v>
@@ -4787,13 +4827,13 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D132" s="25" t="n">
         <v>44389</v>
@@ -4801,13 +4841,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D133" s="25" t="n">
         <v>44391</v>
@@ -4815,13 +4855,13 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D134" s="25" t="n">
         <v>44393</v>
@@ -4829,13 +4869,13 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D135" s="25" t="n">
         <v>44394</v>
@@ -4843,13 +4883,13 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D136" s="25" t="n">
         <v>44395</v>
@@ -4857,13 +4897,13 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D137" s="25" t="n">
         <v>44396</v>
@@ -4871,13 +4911,13 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D138" s="25" t="n">
         <v>44397</v>
@@ -4885,13 +4925,13 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D139" s="25" t="n">
         <v>44398</v>
@@ -4899,13 +4939,13 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D140" s="25" t="n">
         <v>44398</v>
@@ -4913,13 +4953,13 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D141" s="25" t="n">
         <v>44403</v>
@@ -4927,13 +4967,13 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D142" s="25" t="n">
         <v>44403</v>
@@ -4941,13 +4981,13 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D143" s="25" t="n">
         <v>44403</v>
@@ -4955,13 +4995,13 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D144" s="25" t="n">
         <v>44404</v>
@@ -4969,13 +5009,13 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>44410</v>
@@ -4983,13 +5023,13 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D146" s="25" t="n">
         <v>44410</v>
@@ -4997,13 +5037,13 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="C147" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D147" s="25" t="n">
         <v>44414</v>
@@ -5011,13 +5051,13 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D148" s="25" t="n">
         <v>44414</v>
@@ -5025,13 +5065,13 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D149" s="25" t="n">
         <v>44415</v>
@@ -5039,13 +5079,13 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D150" s="25" t="n">
         <v>44418</v>
@@ -5053,13 +5093,13 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D151" s="25" t="n">
         <v>44418</v>
@@ -5067,13 +5107,13 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D152" s="25" t="n">
         <v>44420</v>
@@ -5081,13 +5121,13 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D153" s="25" t="n">
         <v>44421</v>
@@ -5095,13 +5135,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D154" s="25" t="n">
         <v>44421</v>
@@ -5109,13 +5149,13 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D155" s="25" t="n">
         <v>44423</v>
@@ -5123,13 +5163,13 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D156" s="25" t="n">
         <v>44424</v>
@@ -5137,13 +5177,13 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D157" s="25" t="n">
         <v>44426</v>
@@ -5151,13 +5191,13 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D158" s="25" t="n">
         <v>44430</v>
@@ -5165,13 +5205,13 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D159" s="25" t="n">
         <v>44431</v>
@@ -5179,13 +5219,13 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D160" s="25" t="n">
         <v>44432</v>
@@ -5193,13 +5233,13 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D161" s="25" t="n">
         <v>44437</v>
@@ -5207,13 +5247,13 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D162" s="25" t="n">
         <v>44442</v>
@@ -5221,13 +5261,13 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D163" s="25" t="n">
         <v>44442</v>
@@ -5235,13 +5275,13 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D164" s="25" t="n">
         <v>44442</v>
@@ -5249,13 +5289,13 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D165" s="25" t="n">
         <v>44442</v>
@@ -5263,13 +5303,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D166" s="25" t="n">
         <v>44443</v>
@@ -5277,13 +5317,13 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D167" s="25" t="n">
         <v>44443</v>
@@ -5291,13 +5331,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D168" s="25" t="n">
         <v>44443</v>
@@ -5305,13 +5345,13 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D169" s="25" t="n">
         <v>44444</v>
@@ -5319,13 +5359,13 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D170" s="25" t="n">
         <v>44444</v>
@@ -5333,13 +5373,13 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D171" s="25" t="n">
         <v>44445</v>
@@ -5347,13 +5387,13 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D172" s="25" t="n">
         <v>44445</v>
@@ -5361,13 +5401,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D173" s="25" t="n">
         <v>44445</v>
@@ -5375,13 +5415,13 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D174" s="25" t="n">
         <v>44448</v>
@@ -5389,13 +5429,13 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D175" s="25" t="n">
         <v>44452</v>
@@ -5403,13 +5443,13 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D176" s="25" t="n">
         <v>44454</v>
@@ -5417,13 +5457,13 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D177" s="25" t="n">
         <v>44455</v>
@@ -5431,13 +5471,13 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D178" s="25" t="n">
         <v>44455</v>
@@ -5445,13 +5485,13 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D179" s="25" t="n">
         <v>44455</v>
@@ -5459,13 +5499,13 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D180" s="25" t="n">
         <v>44456</v>
@@ -5473,13 +5513,13 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D181" s="25" t="n">
         <v>44456</v>
@@ -5487,13 +5527,13 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D182" s="25" t="n">
         <v>44456</v>
@@ -5501,13 +5541,13 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D183" s="25" t="n">
         <v>44457</v>
@@ -5515,13 +5555,13 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D184" s="25" t="n">
         <v>44457</v>
@@ -5529,13 +5569,13 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D185" s="25" t="n">
         <v>44457</v>
@@ -5543,13 +5583,13 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D186" s="25" t="n">
         <v>44458</v>
@@ -5557,13 +5597,13 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D187" s="25" t="n">
         <v>44458</v>
@@ -5571,13 +5611,13 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D188" s="25" t="n">
         <v>44461</v>
@@ -5585,13 +5625,13 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D189" s="25" t="n">
         <v>44462</v>
@@ -5599,13 +5639,13 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D190" s="25" t="n">
         <v>44462</v>
@@ -5613,13 +5653,13 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D191" s="25" t="n">
         <v>44463</v>
@@ -5627,13 +5667,13 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D192" s="25" t="n">
         <v>44463</v>
@@ -5641,13 +5681,13 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D193" s="25" t="n">
         <v>44466</v>
@@ -5655,13 +5695,13 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D194" s="25" t="n">
         <v>44468</v>
@@ -5669,13 +5709,13 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D195" s="25" t="n">
         <v>44468</v>
@@ -5683,13 +5723,13 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D196" s="25" t="n">
         <v>44473</v>
@@ -5697,13 +5737,13 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D197" s="25" t="n">
         <v>44481</v>
@@ -5711,13 +5751,13 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D198" s="25" t="n">
         <v>44482</v>
@@ -5725,13 +5765,13 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D199" s="25" t="n">
         <v>44483</v>
@@ -5739,13 +5779,13 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D200" s="25" t="n">
         <v>44483</v>
@@ -5753,13 +5793,13 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D201" s="25" t="n">
         <v>44484</v>
@@ -5767,13 +5807,13 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D202" s="25" t="n">
         <v>44485</v>
@@ -5781,13 +5821,13 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D203" s="25" t="n">
         <v>44486</v>
@@ -5795,13 +5835,13 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D204" s="25" t="n">
         <v>44491</v>
@@ -5809,13 +5849,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D205" s="25" t="n">
         <v>44491</v>
@@ -5823,13 +5863,13 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D206" s="25" t="n">
         <v>44491</v>
@@ -5837,13 +5877,13 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D207" s="25" t="n">
         <v>44492</v>
@@ -5851,13 +5891,13 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D208" s="25" t="n">
         <v>44500</v>
@@ -5865,13 +5905,13 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D209" s="25" t="n">
         <v>44503</v>
@@ -5879,13 +5919,13 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D210" s="25" t="n">
         <v>44503</v>
@@ -5893,13 +5933,13 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D211" s="25" t="n">
         <v>44503</v>
@@ -5907,13 +5947,13 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D212" s="25" t="n">
         <v>44503</v>
@@ -5921,13 +5961,13 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D213" s="25" t="n">
         <v>44504</v>
@@ -5935,13 +5975,13 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B214" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B214" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="C214" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D214" s="25" t="n">
         <v>44508</v>
@@ -5949,13 +5989,13 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D215" s="25" t="n">
         <v>44509</v>
@@ -5963,13 +6003,13 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D216" s="25" t="n">
         <v>44509</v>
@@ -5977,13 +6017,13 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D217" s="25" t="n">
         <v>44510</v>
@@ -5991,13 +6031,13 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D218" s="25" t="n">
         <v>44511</v>
@@ -6005,13 +6045,13 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D219" s="25" t="n">
         <v>44512</v>
@@ -6019,13 +6059,13 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D220" s="25" t="n">
         <v>44512</v>
@@ -6033,13 +6073,13 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D221" s="25" t="n">
         <v>44513</v>
@@ -6047,13 +6087,13 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D222" s="25" t="n">
         <v>44514</v>
@@ -6061,13 +6101,13 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D223" s="25" t="n">
         <v>44517</v>
@@ -6075,13 +6115,13 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D224" s="25" t="n">
         <v>44517</v>
@@ -6089,13 +6129,13 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D225" s="25" t="n">
         <v>44520</v>
@@ -6103,13 +6143,13 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D226" s="25" t="n">
         <v>44522</v>
@@ -6117,13 +6157,13 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D227" s="25" t="n">
         <v>44524</v>
@@ -6131,13 +6171,13 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D228" s="25" t="n">
         <v>44526</v>
@@ -6145,13 +6185,13 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D229" s="25" t="n">
         <v>44531</v>
@@ -6159,13 +6199,13 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D230" s="25" t="n">
         <v>44531</v>
@@ -6173,13 +6213,13 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D231" s="25" t="n">
         <v>44531</v>
@@ -6187,13 +6227,13 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D232" s="25" t="n">
         <v>44531</v>
@@ -6201,13 +6241,13 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D233" s="25" t="n">
         <v>44531</v>
@@ -6215,13 +6255,13 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D234" s="25" t="n">
         <v>44531</v>
@@ -6229,13 +6269,13 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D235" s="25" t="n">
         <v>44532</v>
@@ -6243,13 +6283,13 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D236" s="25" t="n">
         <v>44532</v>
@@ -6257,13 +6297,13 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D237" s="25" t="n">
         <v>44532</v>
@@ -6271,13 +6311,13 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D238" s="25" t="n">
         <v>44533</v>
@@ -6285,13 +6325,13 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D239" s="25" t="n">
         <v>44533</v>
@@ -6299,13 +6339,13 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D240" s="25" t="n">
         <v>44533</v>
@@ -6313,13 +6353,13 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D241" s="25" t="n">
         <v>44534</v>
@@ -6327,13 +6367,13 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D242" s="25" t="n">
         <v>44534</v>
@@ -6341,13 +6381,13 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D243" s="25" t="n">
         <v>44534</v>
@@ -6355,13 +6395,13 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D244" s="25" t="n">
         <v>44534</v>
@@ -6369,13 +6409,13 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D245" s="25" t="n">
         <v>44537</v>
@@ -6383,13 +6423,13 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D246" s="25" t="n">
         <v>44538</v>
@@ -6397,13 +6437,13 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D247" s="25" t="n">
         <v>44539</v>
@@ -6411,13 +6451,13 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D248" s="25" t="n">
         <v>44539</v>
@@ -6425,13 +6465,13 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D249" s="25" t="n">
         <v>44541</v>
@@ -6439,13 +6479,13 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D250" s="25" t="n">
         <v>44541</v>
@@ -6453,13 +6493,13 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D251" s="25" t="n">
         <v>44544</v>
@@ -6467,13 +6507,13 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D252" s="25" t="n">
         <v>44544</v>
@@ -6481,13 +6521,13 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D253" s="25" t="n">
         <v>44544</v>
@@ -6495,13 +6535,13 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D254" s="25" t="n">
         <v>44545</v>
@@ -6509,13 +6549,13 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D255" s="25" t="n">
         <v>44545</v>
@@ -6523,13 +6563,13 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D256" s="25" t="n">
         <v>44545</v>
@@ -6537,13 +6577,13 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D257" s="25" t="n">
         <v>44546</v>
@@ -6551,13 +6591,13 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D258" s="25" t="n">
         <v>44547</v>
@@ -6565,13 +6605,13 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D259" s="25" t="n">
         <v>44550</v>
@@ -6579,13 +6619,13 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D260" s="25" t="n">
         <v>44560</v>

--- a/расписание.xlsx
+++ b/расписание.xlsx
@@ -678,7 +678,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Аварийно-спасательное оборудование и пожарный инструмент
+      <t xml:space="preserve">Аварийно-спасательное оборудование и пожарный инструмент»
 </t>
     </r>
     <r>
@@ -823,7 +823,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Пожарно-строевая подготовка Т-8  «</t>
+      <t xml:space="preserve">Пожарно-строевая подготовка: Т-8  «</t>
     </r>
     <r>
       <rPr>
@@ -968,7 +968,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Пожарно-строевая подготовка Т-9  «</t>
+      <t xml:space="preserve">Пожарно-строевая подготовка: Т-9  «</t>
     </r>
     <r>
       <rPr>
@@ -1201,7 +1201,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Развертывание поста РХН.</t>
+      <t xml:space="preserve"> «Развертывание поста РХН.»</t>
     </r>
   </si>
   <si>
@@ -1263,8 +1263,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Подготовка газодымозащитников: 
-Занятия в ДАСВ ПТС Прифи- М (св.воздух)
+    <t xml:space="preserve">Подготовка газодымозащитников: «Занятия в ДАСВ ПТС Прифи- М (св.воздух)»
 1.Требования охраны труда
 2. Занятия в аппаратах</t>
   </si>
@@ -1293,7 +1292,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Изучение обзорных и аналитических документов. </t>
+      <t xml:space="preserve"> «Изучение обзорных и аналитических документов.»</t>
     </r>
   </si>
   <si>
@@ -2184,11 +2183,11 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="107.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.36"/>
@@ -2214,7 +2213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="51.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="12" t="s">
         <v>36</v>
@@ -2448,7 +2447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>41</v>
@@ -2592,7 +2591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="38.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>64</v>
@@ -2806,7 +2805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="29.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>83</v>
@@ -2982,11 +2981,11 @@
   </sheetPr>
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C260" activeCellId="0" sqref="C260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.18"/>
   </cols>
